--- a/data/morimu/input.xlsx
+++ b/data/morimu/input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mo8ri5/Desktop/JWU/Subject/3年/数値計算法2/fujimorimu/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mo8ri5/Desktop/JWU/Subject/3年/数値計算法2/fuzimorimu/data/morimu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2A6EB2-6767-DC48-9EE8-CC8B816DD9EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF50442-66CA-E948-808F-5E6A71F1BC5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{91D00950-669B-4649-B727-A0081C955E8B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="input1" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,6 @@
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -39,226 +36,96 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>コース</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>未定</t>
-    <rPh sb="0" eb="2">
-      <t>ミテ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>数学</t>
-    <rPh sb="0" eb="2">
-      <t>スウガク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>情報</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>物理</t>
-    <rPh sb="0" eb="2">
-      <t>ブツリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>取得判定</t>
-    <rPh sb="0" eb="2">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>単位数</t>
-    <rPh sb="0" eb="3">
-      <t>タンイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>教養特別講義1</t>
-    <rPh sb="0" eb="4">
-      <t>キョウヨウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>コウギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>教養特別講義2-a</t>
-    <rPh sb="0" eb="4">
-      <t>キョウヨウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>コウギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>教養特別講義2-b</t>
-    <rPh sb="0" eb="4">
-      <t>キョウヨウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>コウギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>アクティブイングリッシュ(前期)</t>
-    <rPh sb="13" eb="15">
-      <t>ゼンキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>プレゼンテーションイングリッシュ(前期)</t>
-    <rPh sb="17" eb="19">
-      <t>ゼンキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>第二外国語(前期)</t>
-    <rPh sb="0" eb="5">
-      <t>ダイニガイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ゼンキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>アクティブイングリッシュ(後期)</t>
-    <rPh sb="13" eb="14">
-      <t>コウキ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ゼンキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>プレゼンテーションイングリッシュ(後期)</t>
-    <rPh sb="17" eb="18">
-      <t>コウキ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ゼンキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>第二外国語(後期)</t>
-    <rPh sb="0" eb="1">
-      <t>ダイニ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ガイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>コウキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>基礎情報処理</t>
-    <rPh sb="0" eb="6">
-      <t>キソジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>身体運動a</t>
-    <rPh sb="0" eb="4">
-      <t>シンタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>身体運動b</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>身体運動c</t>
-    <rPh sb="0" eb="1">
-      <t>シンタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>教養科目A</t>
-    <rPh sb="0" eb="2">
-      <t>キョウヨウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カモク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>教養科目B</t>
-    <rPh sb="0" eb="1">
-      <t>キョウヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>教養科目C</t>
-    <rPh sb="0" eb="1">
-      <t>キョウヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>キャリア形成科目</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>上記以外の科目</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>イガイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>履修予定</t>
-    <rPh sb="0" eb="4">
-      <t>リシュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>A+</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>C</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>F</t>
-    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -319,13 +186,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1973,7 +1841,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F6C954-9FA8-C94A-A817-A1724A23D99A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2025,16 +1893,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B19289-D810-7F4E-87BF-60E1C4DCCECD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="1" max="1" width="28" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2250,11 +2118,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F34955F-5CCB-2E4E-B231-421D7B783751}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H164"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2297,7 +2165,7 @@
         <v>基礎数理</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>0</v>

--- a/data/morimu/input.xlsx
+++ b/data/morimu/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mo8ri5/Desktop/JWU/Subject/3年/数値計算法2/fuzimorimu/data/morimu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3A3FA8-9F86-654D-84CD-FF9A5ECE5B6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49EAEFE3-4290-E642-B0FC-7BA15B5C3534}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14540" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="input1" sheetId="1" r:id="rId1"/>
@@ -1172,8 +1172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="I159" sqref="I159"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="C166" sqref="C166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -5479,7 +5479,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -5533,7 +5533,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -5553,7 +5553,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -5579,7 +5579,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -5605,7 +5605,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5634,7 +5634,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -5654,7 +5654,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5683,7 +5683,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -5729,7 +5729,7 @@
         <v>189</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -5755,7 +5755,7 @@
         <v>190</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -5781,7 +5781,7 @@
         <v>191</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -5807,7 +5807,7 @@
         <v>192</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -5833,7 +5833,7 @@
         <v>193</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -5862,7 +5862,7 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -5891,7 +5891,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -5911,7 +5911,7 @@
         <v>196</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -5940,7 +5940,7 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -5963,7 +5963,7 @@
         <v>198</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -6070,7 +6070,7 @@
   <dimension ref="A1:XFD19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -6277,7 +6277,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -6321,7 +6321,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -6371,7 +6371,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -6409,7 +6409,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -6462,7 +6462,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -6509,7 +6509,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -6553,7 +6553,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -6597,7 +6597,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -6694,7 +6694,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -6747,7 +6747,7 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
         <v>0</v>

--- a/data/morimu/input.xlsx
+++ b/data/morimu/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mo8ri5/Desktop/JWU/Subject/3年/数値計算法2/fuzimorimu/data/morimu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49EAEFE3-4290-E642-B0FC-7BA15B5C3534}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B1E320-6FA9-C742-BB0A-49D2F46C92CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14540" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16860" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="input1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="227">
   <si>
     <t>コース</t>
   </si>
@@ -692,6 +692,31 @@
   </si>
   <si>
     <t>日本国憲法</t>
+  </si>
+  <si>
+    <t>情報と通信</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数学の歴史</t>
+    <rPh sb="0" eb="2">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数学と自然</t>
+    <rPh sb="0" eb="1">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>世界の古典II文学－１</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1172,8 +1197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="C166" sqref="C166"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -5479,7 +5504,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -6070,7 +6095,7 @@
   <dimension ref="A1:XFD19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -6775,21 +6800,189 @@
       </c>
     </row>
     <row r="16" spans="1:14 16384:16384">
+      <c r="A16" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
       <c r="XFD16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="16384:16384">
+    <row r="17" spans="1:14 16384:16384">
+      <c r="A17" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
       <c r="XFD17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="16384:16384">
+    <row r="18" spans="1:14 16384:16384">
+      <c r="A18" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
       <c r="XFD18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="16384:16384">
+    <row r="19" spans="1:14 16384:16384">
+      <c r="A19" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
       <c r="XFD19">
         <v>0</v>
       </c>
